--- a/time_stat.xlsx
+++ b/time_stat.xlsx
@@ -447,7 +447,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:P2"/>
+  <dimension ref="A1:P39"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:G2"/>
@@ -534,13 +534,198 @@
         </is>
       </c>
       <c r="B2" s="3" t="n">
-        <v>122</v>
+        <v>180</v>
       </c>
       <c r="D2" s="3" t="n">
-        <v>83</v>
+        <v>300</v>
       </c>
       <c r="F2" s="3" t="n">
-        <v>225</v>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="C3" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="C4" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="C5" s="3" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="C6" s="3" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="C7" s="3" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="C8" s="3" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="C9" s="3" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="C10" s="3" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="C11" s="3" t="n">
+        <v>1.111111111111111</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="C12" s="3" t="n">
+        <v>1.111111111111111</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="C13" s="3" t="n">
+        <v>1.111111111111111</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="C14" s="3" t="n">
+        <v>1.111111111111111</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="C15" s="3" t="n">
+        <v>1.111111111111111</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="C16" s="3" t="n">
+        <v>1.111111111111111</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="C17" s="3" t="n">
+        <v>1.666666666666667</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="C18" s="3" t="n">
+        <v>1.666666666666667</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="C19" s="3" t="n">
+        <v>1.666666666666667</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="C20" s="3" t="n">
+        <v>1.666666666666667</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="C21" s="3" t="n">
+        <v>1.666666666666667</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="C22" s="3" t="n">
+        <v>1.666666666666667</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="C23" s="3" t="n">
+        <v>2.222222222222222</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="C24" s="3" t="n">
+        <v>2.222222222222222</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="C25" s="3" t="n">
+        <v>2.222222222222222</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="C26" s="3" t="n">
+        <v>2.222222222222222</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="C27" s="3" t="n">
+        <v>2.222222222222222</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="C28" s="3" t="n">
+        <v>2.222222222222222</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="C29" s="3" t="n">
+        <v>2.777777777777778</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="C30" s="3" t="n">
+        <v>2.777777777777778</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="C31" s="3" t="n">
+        <v>2.777777777777778</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="C32" s="3" t="n">
+        <v>2.777777777777778</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="C33" s="3" t="n">
+        <v>2.777777777777778</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="C34" s="3" t="n">
+        <v>2.777777777777778</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="C35" s="3" t="n">
+        <v>3.333333333333333</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="C36" s="3" t="n">
+        <v>3.333333333333333</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="C37" s="3" t="n">
+        <v>3.333333333333333</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="C38" s="3" t="n">
+        <v>3.333333333333333</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="C39" t="n">
+        <v>3.333333333333333</v>
       </c>
     </row>
   </sheetData>

--- a/time_stat.xlsx
+++ b/time_stat.xlsx
@@ -447,13 +447,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:P39"/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:G2"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.66015625" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.8046875" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0"/>
   <sheetData>
     <row r="1" ht="12.75" customHeight="1" s="2">
       <c r="A1" s="3" t="inlineStr">
@@ -468,7 +468,7 @@
       </c>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Work_do</t>
+          <t>Work_do, %</t>
         </is>
       </c>
       <c r="D1" s="3" t="inlineStr">
@@ -478,7 +478,7 @@
       </c>
       <c r="E1" s="3" t="inlineStr">
         <is>
-          <t>Studies_do</t>
+          <t>Studies_do, %</t>
         </is>
       </c>
       <c r="F1" s="3" t="inlineStr">
@@ -488,7 +488,7 @@
       </c>
       <c r="G1" s="3" t="inlineStr">
         <is>
-          <t>Rest_do</t>
+          <t>Rest_do, %</t>
         </is>
       </c>
       <c r="J1" s="3" t="inlineStr">
@@ -503,7 +503,7 @@
       </c>
       <c r="L1" s="3" t="inlineStr">
         <is>
-          <t>Work_do</t>
+          <t>Work_do, %</t>
         </is>
       </c>
       <c r="M1" s="3" t="inlineStr">
@@ -513,7 +513,7 @@
       </c>
       <c r="N1" s="3" t="inlineStr">
         <is>
-          <t>Studies_do</t>
+          <t>Studies_do, %</t>
         </is>
       </c>
       <c r="O1" s="3" t="inlineStr">
@@ -523,211 +523,53 @@
       </c>
       <c r="P1" s="3" t="inlineStr">
         <is>
-          <t>Rest_do</t>
+          <t>Rest_do, %</t>
         </is>
       </c>
     </row>
-    <row r="2">
+    <row r="2" ht="12.75" customHeight="1" s="2">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t>2023-07-16</t>
+          <t>2023-07-17</t>
         </is>
       </c>
       <c r="B2" s="3" t="n">
         <v>180</v>
       </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
       <c r="D2" s="3" t="n">
         <v>300</v>
       </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
       <c r="F2" s="3" t="n">
         <v>45</v>
       </c>
     </row>
-    <row r="3">
-      <c r="C3" s="3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="C4" s="3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="C5" s="3" t="n">
-        <v>0.5555555555555556</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="C6" s="3" t="n">
-        <v>0.5555555555555556</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="C7" s="3" t="n">
-        <v>0.5555555555555556</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="C8" s="3" t="n">
-        <v>0.5555555555555556</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="C9" s="3" t="n">
-        <v>0.5555555555555556</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="C10" s="3" t="n">
-        <v>0.5555555555555556</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="C11" s="3" t="n">
-        <v>1.111111111111111</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="C12" s="3" t="n">
-        <v>1.111111111111111</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="C13" s="3" t="n">
-        <v>1.111111111111111</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="C14" s="3" t="n">
-        <v>1.111111111111111</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="C15" s="3" t="n">
-        <v>1.111111111111111</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="C16" s="3" t="n">
-        <v>1.111111111111111</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="C17" s="3" t="n">
-        <v>1.666666666666667</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="C18" s="3" t="n">
-        <v>1.666666666666667</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="C19" s="3" t="n">
-        <v>1.666666666666667</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="C20" s="3" t="n">
-        <v>1.666666666666667</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="C21" s="3" t="n">
-        <v>1.666666666666667</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="C22" s="3" t="n">
-        <v>1.666666666666667</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="C23" s="3" t="n">
-        <v>2.222222222222222</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="C24" s="3" t="n">
-        <v>2.222222222222222</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="C25" s="3" t="n">
-        <v>2.222222222222222</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="C26" s="3" t="n">
-        <v>2.222222222222222</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="C27" s="3" t="n">
-        <v>2.222222222222222</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="C28" s="3" t="n">
-        <v>2.222222222222222</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="C29" s="3" t="n">
-        <v>2.777777777777778</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="C30" s="3" t="n">
-        <v>2.777777777777778</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="C31" s="3" t="n">
-        <v>2.777777777777778</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="C32" s="3" t="n">
-        <v>2.777777777777778</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="C33" s="3" t="n">
-        <v>2.777777777777778</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="C34" s="3" t="n">
-        <v>2.777777777777778</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="C35" s="3" t="n">
-        <v>3.333333333333333</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="C36" s="3" t="n">
-        <v>3.333333333333333</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="C37" s="3" t="n">
-        <v>3.333333333333333</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="C38" s="3" t="n">
-        <v>3.333333333333333</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="C39" t="n">
-        <v>3.333333333333333</v>
-      </c>
-    </row>
+    <row r="3" ht="12.75" customHeight="1" s="2"/>
+    <row r="4" ht="12.75" customHeight="1" s="2"/>
+    <row r="5" ht="12.75" customHeight="1" s="2"/>
+    <row r="6" ht="12.75" customHeight="1" s="2"/>
+    <row r="7" ht="12.75" customHeight="1" s="2"/>
+    <row r="8" ht="12.75" customHeight="1" s="2"/>
+    <row r="9" ht="12.75" customHeight="1" s="2"/>
+    <row r="10" ht="12.75" customHeight="1" s="2"/>
+    <row r="11" ht="12.75" customHeight="1" s="2"/>
+    <row r="12" ht="12.75" customHeight="1" s="2"/>
+    <row r="13" ht="12.75" customHeight="1" s="2"/>
+    <row r="14" ht="12.75" customHeight="1" s="2"/>
+    <row r="15" ht="12.75" customHeight="1" s="2"/>
+    <row r="16" ht="12.75" customHeight="1" s="2"/>
+    <row r="17" ht="12.75" customHeight="1" s="2"/>
+    <row r="18" ht="12.75" customHeight="1" s="2"/>
+    <row r="19" ht="12.75" customHeight="1" s="2"/>
+    <row r="20" ht="12.75" customHeight="1" s="2"/>
+    <row r="21" ht="12.75" customHeight="1" s="2"/>
+    <row r="22" ht="12.75" customHeight="1" s="2"/>
+    <row r="23" ht="12.75" customHeight="1" s="2"/>
   </sheetData>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/time_stat.xlsx
+++ b/time_stat.xlsx
@@ -447,7 +447,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:P2"/>
+  <dimension ref="A1:P20"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -536,37 +536,457 @@
       <c r="B2" s="3" t="n">
         <v>180</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="D2" s="3" t="n">
+        <v>300</v>
+      </c>
+      <c r="E2" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="D2" s="3" t="n">
-        <v>300</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
       <c r="F2" s="3" t="n">
         <v>45</v>
       </c>
     </row>
-    <row r="3" ht="12.75" customHeight="1" s="2"/>
-    <row r="4" ht="12.75" customHeight="1" s="2"/>
-    <row r="5" ht="12.75" customHeight="1" s="2"/>
-    <row r="6" ht="12.75" customHeight="1" s="2"/>
-    <row r="7" ht="12.75" customHeight="1" s="2"/>
-    <row r="8" ht="12.75" customHeight="1" s="2"/>
-    <row r="9" ht="12.75" customHeight="1" s="2"/>
-    <row r="10" ht="12.75" customHeight="1" s="2"/>
-    <row r="11" ht="12.75" customHeight="1" s="2"/>
-    <row r="12" ht="12.75" customHeight="1" s="2"/>
-    <row r="13" ht="12.75" customHeight="1" s="2"/>
-    <row r="14" ht="12.75" customHeight="1" s="2"/>
-    <row r="15" ht="12.75" customHeight="1" s="2"/>
-    <row r="16" ht="12.75" customHeight="1" s="2"/>
-    <row r="17" ht="12.75" customHeight="1" s="2"/>
-    <row r="18" ht="12.75" customHeight="1" s="2"/>
-    <row r="19" ht="12.75" customHeight="1" s="2"/>
-    <row r="20" ht="12.75" customHeight="1" s="2"/>
+    <row r="3" ht="12.75" customHeight="1" s="2">
+      <c r="A3" s="3" t="inlineStr">
+        <is>
+          <t>2023-07-18</t>
+        </is>
+      </c>
+      <c r="B3" s="3" t="n">
+        <v>180</v>
+      </c>
+      <c r="C3" s="3" t="n">
+        <v>36.11111111111111</v>
+      </c>
+      <c r="D3" s="3" t="n">
+        <v>300</v>
+      </c>
+      <c r="E3" s="3" t="n">
+        <v>30.33333333333333</v>
+      </c>
+      <c r="F3" s="3" t="n">
+        <v>45</v>
+      </c>
+      <c r="G3" s="3" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" ht="12.75" customHeight="1" s="2">
+      <c r="A4" s="3" t="inlineStr">
+        <is>
+          <t>2023-07-19</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="n">
+        <v>180</v>
+      </c>
+      <c r="C4" s="3" t="n">
+        <v>65</v>
+      </c>
+      <c r="D4" s="3" t="n">
+        <v>300</v>
+      </c>
+      <c r="E4" s="3" t="n">
+        <v>73</v>
+      </c>
+      <c r="F4" s="3" t="n">
+        <v>45</v>
+      </c>
+      <c r="G4" s="3" t="n">
+        <v>206.6666666666667</v>
+      </c>
+    </row>
+    <row r="5" ht="12.75" customHeight="1" s="2">
+      <c r="A5" s="3" t="inlineStr">
+        <is>
+          <t>2023-07-20</t>
+        </is>
+      </c>
+      <c r="B5" s="3" t="n">
+        <v>180</v>
+      </c>
+      <c r="C5" s="3" t="n">
+        <v>57.22222222222222</v>
+      </c>
+      <c r="D5" s="3" t="n">
+        <v>300</v>
+      </c>
+      <c r="E5" s="3" t="n">
+        <v>82.33333333333333</v>
+      </c>
+      <c r="F5" s="3" t="n">
+        <v>45</v>
+      </c>
+      <c r="G5" s="3" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" ht="12.75" customHeight="1" s="2">
+      <c r="A6" s="3" t="inlineStr">
+        <is>
+          <t>2023-07-21</t>
+        </is>
+      </c>
+      <c r="B6" s="3" t="n">
+        <v>180</v>
+      </c>
+      <c r="D6" s="3" t="n">
+        <v>300</v>
+      </c>
+      <c r="E6" s="3" t="n">
+        <v>121.3333333333333</v>
+      </c>
+      <c r="F6" s="3" t="n">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" ht="12.75" customHeight="1" s="2">
+      <c r="A7" s="3" t="inlineStr">
+        <is>
+          <t>2023-07-24</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="n">
+        <v>180</v>
+      </c>
+      <c r="C7" s="3" t="n">
+        <v>27.77777777777778</v>
+      </c>
+      <c r="D7" s="3" t="n">
+        <v>300</v>
+      </c>
+      <c r="E7" s="3" t="n">
+        <v>51.33333333333334</v>
+      </c>
+      <c r="F7" s="3" t="n">
+        <v>45</v>
+      </c>
+      <c r="G7" s="3" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" ht="12.75" customHeight="1" s="2">
+      <c r="A8" s="3" t="inlineStr">
+        <is>
+          <t>2023-07-25</t>
+        </is>
+      </c>
+      <c r="B8" s="3" t="n">
+        <v>180</v>
+      </c>
+      <c r="C8" s="3" t="n">
+        <v>58.88888888888889</v>
+      </c>
+      <c r="D8" s="3" t="n">
+        <v>300</v>
+      </c>
+      <c r="E8" s="3" t="n">
+        <v>73.33333333333333</v>
+      </c>
+      <c r="F8" s="3" t="n">
+        <v>45</v>
+      </c>
+      <c r="G8" s="3" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" ht="12.75" customHeight="1" s="2">
+      <c r="A9" s="3" t="inlineStr">
+        <is>
+          <t>2023-07-26</t>
+        </is>
+      </c>
+      <c r="B9" s="3" t="n">
+        <v>180</v>
+      </c>
+      <c r="C9" s="3" t="n">
+        <v>97.22222222222223</v>
+      </c>
+      <c r="D9" s="3" t="n">
+        <v>300</v>
+      </c>
+      <c r="E9" s="3" t="n">
+        <v>113</v>
+      </c>
+      <c r="F9" s="3" t="n">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" ht="12.75" customHeight="1" s="2">
+      <c r="A10" s="3" t="inlineStr">
+        <is>
+          <t>2023-07-27</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="n">
+        <v>180</v>
+      </c>
+      <c r="C10" s="3" t="n">
+        <v>95</v>
+      </c>
+      <c r="D10" s="3" t="n">
+        <v>300</v>
+      </c>
+      <c r="E10" s="3" t="n">
+        <v>75</v>
+      </c>
+      <c r="F10" s="3" t="n">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" ht="12.75" customHeight="1" s="2">
+      <c r="A11" s="3" t="inlineStr">
+        <is>
+          <t>2023-07-28</t>
+        </is>
+      </c>
+      <c r="B11" s="3" t="n">
+        <v>180</v>
+      </c>
+      <c r="C11" s="3" t="n">
+        <v>30.55555555555556</v>
+      </c>
+      <c r="D11" s="3" t="n">
+        <v>300</v>
+      </c>
+      <c r="E11" s="3" t="n">
+        <v>107.6666666666667</v>
+      </c>
+      <c r="F11" s="3" t="n">
+        <v>45</v>
+      </c>
+      <c r="G11" s="3" t="n">
+        <v>31.11111111111111</v>
+      </c>
+    </row>
+    <row r="12" ht="12.75" customHeight="1" s="2">
+      <c r="A12" s="3" t="inlineStr">
+        <is>
+          <t>2023-07-31</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="n">
+        <v>180</v>
+      </c>
+      <c r="C12" s="3" t="n">
+        <v>100.5555555555556</v>
+      </c>
+      <c r="D12" s="3" t="n">
+        <v>300</v>
+      </c>
+      <c r="E12" s="3" t="n">
+        <v>85</v>
+      </c>
+      <c r="F12" s="3" t="n">
+        <v>45</v>
+      </c>
+      <c r="G12" s="3" t="n">
+        <v>66.66666666666667</v>
+      </c>
+    </row>
+    <row r="13" ht="12.75" customHeight="1" s="2">
+      <c r="A13" s="3" t="inlineStr">
+        <is>
+          <t>2023-08-01</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="n">
+        <v>180</v>
+      </c>
+      <c r="C13" s="3" t="n">
+        <v>65.55555555555556</v>
+      </c>
+      <c r="D13" s="3" t="n">
+        <v>300</v>
+      </c>
+      <c r="E13" s="3" t="n">
+        <v>98.66666666666667</v>
+      </c>
+      <c r="F13" s="3" t="n">
+        <v>45</v>
+      </c>
+      <c r="G13" s="3" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" ht="12.75" customHeight="1" s="2">
+      <c r="A14" s="3" t="inlineStr">
+        <is>
+          <t>2023-08-02</t>
+        </is>
+      </c>
+      <c r="B14" s="3" t="n">
+        <v>180</v>
+      </c>
+      <c r="C14" s="3" t="n">
+        <v>51.66666666666666</v>
+      </c>
+      <c r="D14" s="3" t="n">
+        <v>300</v>
+      </c>
+      <c r="E14" s="3" t="n">
+        <v>60.66666666666666</v>
+      </c>
+      <c r="F14" s="3" t="n">
+        <v>45</v>
+      </c>
+      <c r="G14" s="3" t="n">
+        <v>13.33333333333333</v>
+      </c>
+    </row>
+    <row r="15" ht="12.75" customHeight="1" s="2">
+      <c r="A15" s="3" t="inlineStr">
+        <is>
+          <t>2023-08-03</t>
+        </is>
+      </c>
+      <c r="B15" s="3" t="n">
+        <v>180</v>
+      </c>
+      <c r="C15" s="3" t="n">
+        <v>88.33333333333333</v>
+      </c>
+      <c r="D15" s="3" t="n">
+        <v>300</v>
+      </c>
+      <c r="E15" s="3" t="n">
+        <v>70.66666666666667</v>
+      </c>
+      <c r="F15" s="3" t="n">
+        <v>45</v>
+      </c>
+      <c r="G15" s="3" t="n">
+        <v>48.88888888888889</v>
+      </c>
+    </row>
+    <row r="16" ht="12.75" customHeight="1" s="2">
+      <c r="A16" s="3" t="inlineStr">
+        <is>
+          <t>2023-08-04</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="n">
+        <v>180</v>
+      </c>
+      <c r="C16" s="3" t="n">
+        <v>86.11111111111111</v>
+      </c>
+      <c r="D16" s="3" t="n">
+        <v>300</v>
+      </c>
+      <c r="E16" s="3" t="n">
+        <v>81</v>
+      </c>
+      <c r="F16" s="3" t="n">
+        <v>45</v>
+      </c>
+      <c r="G16" s="3" t="n">
+        <v>264.4444444444445</v>
+      </c>
+    </row>
+    <row r="17" ht="12.75" customHeight="1" s="2">
+      <c r="A17" s="3" t="inlineStr">
+        <is>
+          <t>2023-08-07</t>
+        </is>
+      </c>
+      <c r="B17" s="3" t="n">
+        <v>180</v>
+      </c>
+      <c r="C17" s="3" t="n">
+        <v>60.55555555555556</v>
+      </c>
+      <c r="D17" s="3" t="n">
+        <v>300</v>
+      </c>
+      <c r="E17" s="3" t="n">
+        <v>60.66666666666666</v>
+      </c>
+      <c r="F17" s="3" t="n">
+        <v>45</v>
+      </c>
+      <c r="G17" s="3" t="n">
+        <v>115.5555555555556</v>
+      </c>
+    </row>
+    <row r="18" ht="12.75" customHeight="1" s="2">
+      <c r="A18" s="3" t="inlineStr">
+        <is>
+          <t>2023-08-08</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="n">
+        <v>180</v>
+      </c>
+      <c r="C18" s="3" t="n">
+        <v>4.444444444444445</v>
+      </c>
+      <c r="D18" s="3" t="n">
+        <v>300</v>
+      </c>
+      <c r="E18" s="3" t="n">
+        <v>11</v>
+      </c>
+      <c r="F18" s="3" t="n">
+        <v>45</v>
+      </c>
+      <c r="G18" s="3" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" ht="12.75" customHeight="1" s="2">
+      <c r="A19" s="3" t="inlineStr">
+        <is>
+          <t>2023-08-09</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="n">
+        <v>180</v>
+      </c>
+      <c r="C19" s="3" t="n">
+        <v>111.1111111111111</v>
+      </c>
+      <c r="D19" s="3" t="n">
+        <v>300</v>
+      </c>
+      <c r="E19" s="3" t="n">
+        <v>64</v>
+      </c>
+      <c r="F19" s="3" t="n">
+        <v>45</v>
+      </c>
+      <c r="G19" s="3" t="n">
+        <v>82.22222222222223</v>
+      </c>
+    </row>
+    <row r="20" ht="12.75" customHeight="1" s="2">
+      <c r="A20" s="3" t="inlineStr">
+        <is>
+          <t>2023-08-10</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="n">
+        <v>180</v>
+      </c>
+      <c r="C20" t="n">
+        <v>100</v>
+      </c>
+      <c r="D20" s="3" t="n">
+        <v>300</v>
+      </c>
+      <c r="E20" t="n">
+        <v>23.66666666666667</v>
+      </c>
+      <c r="F20" s="3" t="n">
+        <v>45</v>
+      </c>
+      <c r="G20" t="n">
+        <v>6.666666666666667</v>
+      </c>
+    </row>
     <row r="21" ht="12.75" customHeight="1" s="2"/>
     <row r="22" ht="12.75" customHeight="1" s="2"/>
     <row r="23" ht="12.75" customHeight="1" s="2"/>
